--- a/stimuli_en/multipleye-stimuli-practice-en.xlsx
+++ b/stimuli_en/multipleye-stimuli-practice-en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marosfilip/wg1-image-creation/stimuli_en/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debor/repos/wg1-image-creation/stimuli_en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68617DC-CFD8-B147-A168-0460C34AC46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DF09BA-5965-514B-B83D-782CFDA30859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18720" xr2:uid="{CEBC6618-956B-204A-83A9-65FF22486C43}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" xr2:uid="{CEBC6618-956B-204A-83A9-65FF22486C43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40A6B78-2830-0A44-97D8-ED183F8E9C4D}">
   <dimension ref="A1:AN13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="Q2" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -988,13 +988,13 @@
         <v>15</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Z3" s="8" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>13</v>

--- a/stimuli_en/multipleye-stimuli-practice-en.xlsx
+++ b/stimuli_en/multipleye-stimuli-practice-en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debor/repos/wg1-image-creation/stimuli_en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DF09BA-5965-514B-B83D-782CFDA30859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94E6AD4-94AB-5942-B281-AF98F75DEC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" xr2:uid="{CEBC6618-956B-204A-83A9-65FF22486C43}"/>
   </bookViews>
@@ -672,12 +672,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40A6B78-2830-0A44-97D8-ED183F8E9C4D}">
   <dimension ref="A1:AN13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q2" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="43.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="43.1640625" style="11" customWidth="1"/>
     <col min="21" max="26" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -803,7 +805,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" ht="289" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -919,7 +921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" ht="221" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -929,7 +931,7 @@
       <c r="C3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="11" t="s">
         <v>65</v>
       </c>
       <c r="E3" s="9"/>

--- a/stimuli_en/multipleye-stimuli-practice-en.xlsx
+++ b/stimuli_en/multipleye-stimuli-practice-en.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debor/repos/wg1-image-creation/stimuli_en/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\repos\wg1-image-creation\stimuli_en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94E6AD4-94AB-5942-B281-AF98F75DEC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9D7941E-7EDF-4359-B106-217C2AA65E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" xr2:uid="{CEBC6618-956B-204A-83A9-65FF22486C43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E21A6913-E87B-4122-B47E-27374CD4E09C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,63 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
   <si>
-    <t>multiple choice</t>
-  </si>
-  <si>
-    <t>What is one of  goals of the MultiplEYE COST action?</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>What is a challenge of MultiplEYE?</t>
-  </si>
-  <si>
-    <t>To study how people learn for exams.</t>
-  </si>
-  <si>
-    <t>To investigate how the brain processes texts while reading.</t>
-  </si>
-  <si>
-    <t>To find out if people read a lot.</t>
-  </si>
-  <si>
-    <t>It can be used to find out if people are tired.</t>
-  </si>
-  <si>
-    <t>It is not really useful but researchers just find it fun to study it.</t>
-  </si>
-  <si>
-    <t>We can find out if two people are related.</t>
-  </si>
-  <si>
-    <t>To coordinate between different reasearch groups.</t>
-  </si>
-  <si>
-    <t>That there is no money provided for networking activitites.</t>
-  </si>
-  <si>
-    <t>There is already too much data available.</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>answer_option_1_2</t>
-  </si>
-  <si>
-    <t>answer_option_2_1</t>
-  </si>
-  <si>
-    <t>answer_option_3_1</t>
-  </si>
-  <si>
     <t>stimulus_id_practice</t>
   </si>
   <si>
@@ -128,103 +71,94 @@
     <t>question_3_practice</t>
   </si>
   <si>
-    <t>This is yet another question?</t>
-  </si>
-  <si>
-    <t>Practice_second</t>
+    <t>answer_option_q1_1_practice</t>
+  </si>
+  <si>
+    <t>answer_option_q1_2_practice</t>
+  </si>
+  <si>
+    <t>answer_option_q1_3_practice</t>
+  </si>
+  <si>
+    <t>answer_option_q2_1_practice</t>
+  </si>
+  <si>
+    <t>answer_option_q2_2_practice</t>
+  </si>
+  <si>
+    <t>answer_option_q2_3_practice</t>
+  </si>
+  <si>
+    <t>answer_option_q3_1_practice</t>
+  </si>
+  <si>
+    <t>answer_option_q3_2_practice</t>
+  </si>
+  <si>
+    <t>answer_option_q3_3_practice</t>
+  </si>
+  <si>
+    <t>answer_option_q1_1_key_practice</t>
+  </si>
+  <si>
+    <t>answer_option_q1_2_key_practice</t>
+  </si>
+  <si>
+    <t>answer_option_q1_3_key_practice</t>
+  </si>
+  <si>
+    <t>answer_option_q2_1_key_practice</t>
+  </si>
+  <si>
+    <t>answer_option_q2_2_key_practice</t>
+  </si>
+  <si>
+    <t>answer_option_q2_3_key_practice</t>
+  </si>
+  <si>
+    <t>answer_option_q3_1_key_practice</t>
+  </si>
+  <si>
+    <t>answer_option_q3_2_key_practice</t>
+  </si>
+  <si>
+    <t>answer_option_q3_3_key_practice</t>
+  </si>
+  <si>
+    <t>correct_answer_col_name_q1_practice</t>
+  </si>
+  <si>
+    <t>correct_answer_col_name_q2_practice</t>
+  </si>
+  <si>
+    <t>correct_answer_col_name_q3_practice</t>
+  </si>
+  <si>
+    <t>correct_answer_col_name_q4_practice</t>
+  </si>
+  <si>
+    <t>correct_answer_col_name_q5_practice</t>
+  </si>
+  <si>
+    <t>correct_answer_q1_practice</t>
+  </si>
+  <si>
+    <t>correct_answer_q2_practice</t>
+  </si>
+  <si>
+    <t>correct_answer_q3_practice</t>
+  </si>
+  <si>
+    <t>correct_answer_key_q1_practice</t>
+  </si>
+  <si>
+    <t>correct_answer_key_q2_practice</t>
+  </si>
+  <si>
+    <t>correct_answer_key_q3_practice</t>
   </si>
   <si>
     <t>Practice_first</t>
-  </si>
-  <si>
-    <t>Is this again a question?</t>
-  </si>
-  <si>
-    <t>answer_option_q1_1_practice</t>
-  </si>
-  <si>
-    <t>answer_option_q1_2_practice</t>
-  </si>
-  <si>
-    <t>answer_option_q1_3_practice</t>
-  </si>
-  <si>
-    <t>answer_option_q2_1_practice</t>
-  </si>
-  <si>
-    <t>answer_option_q2_2_practice</t>
-  </si>
-  <si>
-    <t>answer_option_q2_3_practice</t>
-  </si>
-  <si>
-    <t>answer_option_q3_1_practice</t>
-  </si>
-  <si>
-    <t>answer_option_q3_2_practice</t>
-  </si>
-  <si>
-    <t>answer_option_q3_3_practice</t>
-  </si>
-  <si>
-    <t>answer_option_q1_1_key_practice</t>
-  </si>
-  <si>
-    <t>answer_option_q1_2_key_practice</t>
-  </si>
-  <si>
-    <t>answer_option_q1_3_key_practice</t>
-  </si>
-  <si>
-    <t>answer_option_q2_1_key_practice</t>
-  </si>
-  <si>
-    <t>answer_option_q2_2_key_practice</t>
-  </si>
-  <si>
-    <t>answer_option_q2_3_key_practice</t>
-  </si>
-  <si>
-    <t>answer_option_q3_1_key_practice</t>
-  </si>
-  <si>
-    <t>answer_option_q3_2_key_practice</t>
-  </si>
-  <si>
-    <t>answer_option_q3_3_key_practice</t>
-  </si>
-  <si>
-    <t>correct_answer_col_name_q1_practice</t>
-  </si>
-  <si>
-    <t>correct_answer_col_name_q2_practice</t>
-  </si>
-  <si>
-    <t>correct_answer_col_name_q3_practice</t>
-  </si>
-  <si>
-    <t>correct_answer_col_name_q4_practice</t>
-  </si>
-  <si>
-    <t>correct_answer_col_name_q5_practice</t>
-  </si>
-  <si>
-    <t>correct_answer_q1_practice</t>
-  </si>
-  <si>
-    <t>correct_answer_q2_practice</t>
-  </si>
-  <si>
-    <t>correct_answer_q3_practice</t>
-  </si>
-  <si>
-    <t>correct_answer_key_q1_practice</t>
-  </si>
-  <si>
-    <t>correct_answer_key_q2_practice</t>
-  </si>
-  <si>
-    <t>correct_answer_key_q3_practice</t>
   </si>
   <si>
     <t>Introduction
@@ -239,10 +173,76 @@
 The blog’s simple black-and-white theme gives it a sleek look fitting for a technology blog. Upon accessing the website, visitors’ eyes are immediately drawn to the collage of photos and headlines of their most recent and popular articles. Further down the page, more article headlines are sorted by the most recent to the oldest and accompanied by a picture and sentence summarizing the article’s content. This lets visitors know that the blog is regularly updated with a variety of content.</t>
   </si>
   <si>
+    <t>multiple choice</t>
+  </si>
+  <si>
+    <t>What is one of  goals of the MultiplEYE COST action?</t>
+  </si>
+  <si>
+    <t>This is yet another question?</t>
+  </si>
+  <si>
+    <t>What is a challenge of MultiplEYE?</t>
+  </si>
+  <si>
+    <t>To study how people learn for exams.</t>
+  </si>
+  <si>
+    <t>To investigate how the brain processes texts while reading.</t>
+  </si>
+  <si>
+    <t>To find out if people read a lot.</t>
+  </si>
+  <si>
+    <t>It can be used to find out if people are tired.</t>
+  </si>
+  <si>
+    <t>It is not really useful but researchers just find it fun to study it.</t>
+  </si>
+  <si>
+    <t>We can find out if two people are related.</t>
+  </si>
+  <si>
+    <t>To coordinate between different reasearch groups.</t>
+  </si>
+  <si>
+    <t>That there is no money provided for networking activitites.</t>
+  </si>
+  <si>
+    <t>There is already too much data available.</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>answer_option_1_2</t>
+  </si>
+  <si>
+    <t>answer_option_2_1</t>
+  </si>
+  <si>
+    <t>answer_option_3_1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Practice_second</t>
+  </si>
+  <si>
+    <t>From my hotel room window, I see an oversized billboard with his face on it: Jason, the Great Magician.I absent-mindedly turn the pages of the phone book and come across a city map. Sipping my iced latté, I run my fingers along the streets from the hotel to the opera hall. Not more than a half-hour walk. I glance at the clock. The show starts in one hour. Plenty of time! I gulp the last three sips of my latté and hop in the shower. Soon I’m on my way to the show, carrying a fancy black handbag and a genuine smile. The billboard looks even more impressive from outside. The Great Jason's eyes seem to be glancing through me. </t>
+  </si>
+  <si>
     <t>I shiver and walk faster. I feel like a child about to open her birthday presents. The hall is dark when I come in; the show is about to begin. I make my way backstage just as the great magician puts on his top hat. "Daddy, I'm so glad to see you," I say in a half-whisper. "I'm in town for the writer's workshop, but I just couldn't miss your show." I give him a quick hug and go back into the seating area, leaving him with a startled smile. I settle down in the darkness, and the curtains open. Magically, that show remains the Great Jason's best performance to this day.</t>
   </si>
   <si>
-    <t>From my hotel room window, I see an oversized billboard with his face on it: Jason, the Great Magician.I absent-mindedly turn the pages of the phone book and come across a city map. Sipping my iced latté, I run my fingers along the streets from the hotel to the opera hall. Not more than a half-hour walk. I glance at the clock. The show starts in one hour. Plenty of time! I gulp the last three sips of my latté and hop in the shower. Soon I’m on my way to the show, carrying a fancy black handbag and a genuine smile. The billboard looks even more impressive from outside. The Great Jason's eyes seem to be glancing through me. </t>
+    <t>Is this again a question?</t>
   </si>
 </sst>
 </file>
@@ -251,7 +251,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -286,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -318,24 +318,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -347,13 +334,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -669,413 +655,368 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40A6B78-2830-0A44-97D8-ED183F8E9C4D}">
-  <dimension ref="A1:AN13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881D2657-BDE2-4CFB-8172-7AAA9834B0D1}">
+  <dimension ref="A1:AN3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="43.5" style="11" customWidth="1"/>
-    <col min="4" max="4" width="43.1640625" style="11" customWidth="1"/>
-    <col min="21" max="26" width="21" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:40" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>62</v>
-      </c>
     </row>
-    <row r="2" spans="1:40" ht="289" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>64</v>
+        <v>41</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
       <c r="AI2" s="6" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="AL2" s="5" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="AM2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="AN2" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" ht="221" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN3" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="10"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="10"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="10"/>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="10"/>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="10"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="10"/>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="10"/>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="10"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="10"/>
+      <c r="K3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN3" s="9" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stimuli_en/multipleye-stimuli-practice-en.xlsx
+++ b/stimuli_en/multipleye-stimuli-practice-en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\repos\wg1-image-creation\stimuli_en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debor/repos/wg1-image-creation/stimuli_en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9D7941E-7EDF-4359-B106-217C2AA65E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C914167-1B9C-C845-B66F-724F64A4A95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E21A6913-E87B-4122-B47E-27374CD4E09C}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29040" windowHeight="15720" xr2:uid="{E21A6913-E87B-4122-B47E-27374CD4E09C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,9 +158,6 @@
     <t>correct_answer_key_q3_practice</t>
   </si>
   <si>
-    <t>Practice_first</t>
-  </si>
-  <si>
     <t>Introduction
 Endgaget blog - descritpion from https://www.hostinger.com/tutorials/blog-examples
     Main topics: technology, gadgets, consumer electronics
@@ -233,9 +230,6 @@
     <t/>
   </si>
   <si>
-    <t>Practice_second</t>
-  </si>
-  <si>
     <t>From my hotel room window, I see an oversized billboard with his face on it: Jason, the Great Magician.I absent-mindedly turn the pages of the phone book and come across a city map. Sipping my iced latté, I run my fingers along the streets from the hotel to the opera hall. Not more than a half-hour walk. I glance at the clock. The show starts in one hour. Plenty of time! I gulp the last three sips of my latté and hop in the shower. Soon I’m on my way to the show, carrying a fancy black handbag and a genuine smile. The billboard looks even more impressive from outside. The Great Jason's eyes seem to be glancing through me. </t>
   </si>
   <si>
@@ -243,6 +237,12 @@
   </si>
   <si>
     <t>Is this again a question?</t>
+  </si>
+  <si>
+    <t>practice_1</t>
+  </si>
+  <si>
+    <t>practice_2</t>
   </si>
 </sst>
 </file>
@@ -659,12 +659,15 @@
   <dimension ref="A1:AN3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="54.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,236 +789,236 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="X2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
       <c r="AI2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AL2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="J3" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="Q3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="R3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="S3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="T3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="U3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="V3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="W3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="X3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="X3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AE3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AF3" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="AG3" s="9"/>
       <c r="AH3" s="9"/>
       <c r="AI3" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AJ3" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AK3" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AL3" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM3" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN3" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
